--- a/Tawang Trip.xlsx
+++ b/Tawang Trip.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="182">
   <si>
     <t>Date</t>
   </si>
@@ -576,13 +576,96 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>094028 69201</t>
+  </si>
+  <si>
+    <t>Dirang Tourist Lodge</t>
+  </si>
+  <si>
+    <t>087299 06143
+9436248136
+03780242157</t>
+  </si>
+  <si>
+    <t>Hotel Snow Lion</t>
+  </si>
+  <si>
+    <t>087310 46566</t>
+  </si>
+  <si>
+    <t>087310 39556</t>
+  </si>
+  <si>
+    <t>084149 85656</t>
+  </si>
+  <si>
+    <t>Buddha Lodge</t>
+  </si>
+  <si>
+    <t>087947 74255</t>
+  </si>
+  <si>
+    <t>087945 10687</t>
+  </si>
+  <si>
+    <t>086522 25785</t>
+  </si>
+  <si>
+    <t>8258919962
+0361-2840444
+8415008887</t>
+  </si>
+  <si>
+    <t>1600+tax per Double Room</t>
+  </si>
+  <si>
+    <t>9862941109
+9402059100
+9774419622</t>
+  </si>
+  <si>
+    <t>1200/room
+3 people
+spacious room</t>
+  </si>
+  <si>
+    <t>1000 per room
+3 ppl
+paid breakfast</t>
+  </si>
+  <si>
+    <t>1000 per double room
+2 ppl
+paid breakfast</t>
+  </si>
+  <si>
+    <t>1500
+3 ppl with 1 extra bed</t>
+  </si>
+  <si>
+    <t>1800/room
+3ppl
+paid breakfast</t>
+  </si>
+  <si>
+    <t>1200/room
+3 people</t>
+  </si>
+  <si>
+    <t>1400/room
+2 ppl</t>
+  </si>
+  <si>
+    <t>Booked via booking.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -616,8 +699,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +763,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -881,11 +988,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -961,33 +1070,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -999,9 +1081,77 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1306,7 +1456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1388,14 +1538,14 @@
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39">
         <v>9438657670</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="39" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1527,7 +1677,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1549,7 +1699,7 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="18" t="s">
         <v>37</v>
       </c>
@@ -1747,7 +1897,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -1767,7 +1917,7 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="14" t="s">
         <v>66</v>
       </c>
@@ -1807,7 +1957,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1848,7 +1998,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1870,7 +2020,7 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="18" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +2039,7 @@
       <c r="G3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" s="36" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1938,7 +2088,7 @@
       <c r="F5" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="60" t="s">
         <v>56</v>
       </c>
       <c r="H5" s="23" t="s">
@@ -1962,9 +2112,7 @@
       <c r="F6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>56</v>
-      </c>
+      <c r="G6" s="61"/>
       <c r="H6" s="23" t="s">
         <v>54</v>
       </c>
@@ -2070,7 +2218,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -2090,7 +2238,7 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="14" t="s">
         <v>66</v>
       </c>
@@ -2115,9 +2263,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2127,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2138,21 +2287,22 @@
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="43"/>
       <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
@@ -2160,8 +2310,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
       <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
@@ -2169,8 +2319,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
       <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
@@ -2178,8 +2328,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>136</v>
       </c>
@@ -2187,17 +2337,20 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
       <c r="B6" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="D6" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>138</v>
       </c>
@@ -2205,8 +2358,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
       <c r="B8" s="3" t="s">
         <v>139</v>
       </c>
@@ -2214,8 +2367,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
       <c r="B9" s="3" t="s">
         <v>140</v>
       </c>
@@ -2223,8 +2376,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>141</v>
       </c>
@@ -2232,8 +2385,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
       <c r="B11" s="3" t="s">
         <v>142</v>
       </c>
@@ -2241,330 +2394,406 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
+      <c r="B12" s="34" t="s">
         <v>148</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="44" t="s">
+    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="35" t="s">
         <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="50" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="30" t="s">
+      <c r="C15" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="51" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="30" t="s">
+      <c r="C16" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="30" t="s">
+      <c r="C17" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="55" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="30" t="s">
+      <c r="C18" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="51" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="30" t="s">
+      <c r="C19" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="51" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="30" t="s">
+      <c r="C20" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="51" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="31" t="s">
+      <c r="C21" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="53" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="C25" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="30" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="30" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="30" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="30" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="30" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="30" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="30" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
+      <c r="B36" s="30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="30" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-      <c r="B35" s="30" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="30" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="47"/>
+      <c r="B39" s="30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="30" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="47"/>
+      <c r="B40" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="30" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="47"/>
+      <c r="B41" s="30" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-      <c r="B39" s="30" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="47"/>
+      <c r="B42" s="30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-      <c r="B40" s="30" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="47"/>
+      <c r="B43" s="30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-      <c r="B41" s="30" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="47"/>
+      <c r="B44" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="30" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="47"/>
+      <c r="B45" s="30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-      <c r="B43" s="30" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="47"/>
+      <c r="B46" s="30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-      <c r="B44" s="30" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="47"/>
+      <c r="B47" s="30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-      <c r="B45" s="30" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="47"/>
+      <c r="B48" s="30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="30" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="47"/>
+      <c r="B49" s="30" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="30" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="47"/>
+      <c r="B50" s="30" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="31" t="s">
+    <row r="51" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+      <c r="B51" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="38" t="s">
+    <row r="52" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B53" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-      <c r="B51" s="30" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="47"/>
+      <c r="B54" s="30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-      <c r="B52" s="30" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="47"/>
+      <c r="B55" s="30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-      <c r="B53" s="30" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="47"/>
+      <c r="B56" s="30" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-      <c r="B54" s="30" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="47"/>
+      <c r="B57" s="30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="30" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="47"/>
+      <c r="B58" s="30" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-      <c r="B56" s="30" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="47"/>
+      <c r="B59" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-      <c r="B57" s="30" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="47"/>
+      <c r="B60" s="30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-      <c r="B58" s="30" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="47"/>
+      <c r="B61" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-      <c r="B59" s="30" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="47"/>
+      <c r="B62" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-      <c r="B60" s="30" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="47"/>
+      <c r="B63" s="30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-      <c r="B61" s="30" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="47"/>
+      <c r="B64" s="30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-      <c r="B62" s="30" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="47"/>
+      <c r="B65" s="30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="31" t="s">
+    <row r="66" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="48"/>
+      <c r="B66" s="31" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A24:A48"/>
-    <mergeCell ref="A50:A63"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A27:A51"/>
+    <mergeCell ref="A53:A66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
